--- a/Annotations/Old/1984.xlsx
+++ b/Annotations/Old/1984.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niels\Dropbox\University\Workspace\Master\Excel Files\Old\Annotated\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niels\Dropbox\University\Workspace\Master\Excel Files\Annotations\Old\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13020" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13020"/>
   </bookViews>
   <sheets>
     <sheet name="1948" sheetId="1" r:id="rId1"/>
@@ -1871,15 +1871,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P316"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A311" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G319" sqref="G319"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" style="2" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="0" style="2" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="9.77734375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" style="2" customWidth="1"/>
     <col min="3" max="3" width="34.88671875" style="2" customWidth="1"/>
     <col min="4" max="4" width="49.5546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="55" style="2" customWidth="1"/>
@@ -1944,7 +1944,7 @@
     <row r="2" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <f t="shared" ref="A2:A65" ca="1" si="0">RAND()</f>
-        <v>0.60269257953009459</v>
+        <v>0.78293275544732455</v>
       </c>
       <c r="B2" s="2">
         <v>116</v>
@@ -1968,7 +1968,7 @@
     <row r="3" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.17927180821842514</v>
+        <v>0.76212467905469006</v>
       </c>
       <c r="B3" s="2">
         <v>75</v>
@@ -1992,7 +1992,7 @@
     <row r="4" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1117504374651088E-2</v>
+        <v>0.31653833746809645</v>
       </c>
       <c r="B4" s="2">
         <v>45</v>
@@ -2013,7 +2013,7 @@
     <row r="5" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.95490685811598375</v>
+        <v>0.74511074988523274</v>
       </c>
       <c r="B5" s="2">
         <v>19</v>
@@ -2034,7 +2034,7 @@
     <row r="6" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.79834780155741847</v>
+        <v>0.83555721201604549</v>
       </c>
       <c r="B6" s="2">
         <v>86</v>
@@ -2058,7 +2058,7 @@
     <row r="7" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.33497052147446515</v>
+        <v>0.5614887757093977</v>
       </c>
       <c r="B7" s="2">
         <v>22</v>
@@ -2079,7 +2079,7 @@
     <row r="8" spans="1:16" ht="144" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.17486376519127445</v>
+        <v>0.64698952863766135</v>
       </c>
       <c r="B8" s="2">
         <v>134</v>
@@ -2100,7 +2100,7 @@
     <row r="9" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>5.6750740568989322E-4</v>
+        <v>0.20967819176517899</v>
       </c>
       <c r="B9" s="2">
         <v>126</v>
@@ -2124,7 +2124,7 @@
     <row r="10" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.91511111690689095</v>
+        <v>0.45166959784359739</v>
       </c>
       <c r="B10" s="2">
         <v>92</v>
@@ -2145,7 +2145,7 @@
     <row r="11" spans="1:16" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.36341712570496543</v>
+        <v>0.67433000495559914</v>
       </c>
       <c r="B11" s="2">
         <v>190</v>
@@ -2172,7 +2172,7 @@
     <row r="12" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.38398775263953111</v>
+        <v>0.38764239501883291</v>
       </c>
       <c r="B12" s="2">
         <v>1</v>
@@ -2196,7 +2196,7 @@
     <row r="13" spans="1:16" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13017412077639401</v>
+        <v>0.22699958860189617</v>
       </c>
       <c r="B13" s="2">
         <v>50</v>
@@ -2217,7 +2217,7 @@
     <row r="14" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.65256913947095152</v>
+        <v>0.56835973124778472</v>
       </c>
       <c r="B14" s="2">
         <v>208</v>
@@ -2241,7 +2241,7 @@
     <row r="15" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>6.5398335077398451E-2</v>
+        <v>0.39044068683391342</v>
       </c>
       <c r="B15" s="2">
         <v>170</v>
@@ -2265,7 +2265,7 @@
     <row r="16" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.52319592043200303</v>
+        <v>0.68258319659154365</v>
       </c>
       <c r="B16" s="2">
         <v>227</v>
@@ -2289,7 +2289,7 @@
     <row r="17" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.94890533136548716</v>
+        <v>0.54063319137151378</v>
       </c>
       <c r="B17" s="2">
         <v>69</v>
@@ -2313,7 +2313,7 @@
     <row r="18" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.38324349769291011</v>
+        <v>0.2639139839726653</v>
       </c>
       <c r="B18" s="2">
         <v>152</v>
@@ -2340,7 +2340,7 @@
     <row r="19" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.27197159392958625</v>
+        <v>0.38642392578668427</v>
       </c>
       <c r="B19" s="2">
         <v>160</v>
@@ -2364,7 +2364,7 @@
     <row r="20" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3.376412426567732E-2</v>
+        <v>0.94088846346459232</v>
       </c>
       <c r="B20" s="2">
         <v>193</v>
@@ -2385,7 +2385,7 @@
     <row r="21" spans="1:8" ht="144" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.12621179530392201</v>
+        <v>0.99804014441671951</v>
       </c>
       <c r="B21" s="2">
         <v>197</v>
@@ -2409,7 +2409,7 @@
     <row r="22" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.57996863653101471</v>
+        <v>0.54444650018953877</v>
       </c>
       <c r="B22" s="2">
         <v>21</v>
@@ -2433,7 +2433,7 @@
     <row r="23" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.10990673304347898</v>
+        <v>0.6177714958211068</v>
       </c>
       <c r="B23" s="2">
         <v>114</v>
@@ -2457,7 +2457,7 @@
     <row r="24" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.74614605768833453</v>
+        <v>0.21683955172811342</v>
       </c>
       <c r="B24" s="2">
         <v>238</v>
@@ -2481,7 +2481,7 @@
     <row r="25" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.56301225240638908</v>
+        <v>0.49223554789177393</v>
       </c>
       <c r="B25" s="2">
         <v>314</v>
@@ -2505,7 +2505,7 @@
     <row r="26" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.48229202446181363</v>
+        <v>0.18553760541501563</v>
       </c>
       <c r="B26" s="2">
         <v>171</v>
@@ -2532,7 +2532,7 @@
     <row r="27" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.42395362940504799</v>
+        <v>0.14310881816778254</v>
       </c>
       <c r="B27" s="2">
         <v>151</v>
@@ -2553,7 +2553,7 @@
     <row r="28" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.52626170046116694</v>
+        <v>0.52375219316524257</v>
       </c>
       <c r="B28" s="2">
         <v>80</v>
@@ -2577,7 +2577,7 @@
     <row r="29" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.71113836086371685</v>
+        <v>0.17450482270948808</v>
       </c>
       <c r="B29" s="2">
         <v>46</v>
@@ -2598,7 +2598,7 @@
     <row r="30" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.61685499471579763</v>
+        <v>0.25123980868278128</v>
       </c>
       <c r="B30" s="2">
         <v>180</v>
@@ -2625,7 +2625,7 @@
     <row r="31" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.62433292394531781</v>
+        <v>0.13545986461049508</v>
       </c>
       <c r="B31" s="2">
         <v>284</v>
@@ -2649,7 +2649,7 @@
     <row r="32" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.90386591988221321</v>
+        <v>0.17166329810627445</v>
       </c>
       <c r="B32" s="2">
         <v>244</v>
@@ -2670,7 +2670,7 @@
     <row r="33" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.94485770696780025</v>
+        <v>0.28580123079067188</v>
       </c>
       <c r="B33" s="2">
         <v>236</v>
@@ -2694,7 +2694,7 @@
     <row r="34" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.97048624880241596</v>
+        <v>8.8640157571758471E-2</v>
       </c>
       <c r="B34" s="2">
         <v>99</v>
@@ -2718,7 +2718,7 @@
     <row r="35" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.56773907136493729</v>
+        <v>0.54683019559868395</v>
       </c>
       <c r="B35" s="2">
         <v>67</v>
@@ -2742,7 +2742,7 @@
     <row r="36" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>6.6780348123916089E-2</v>
+        <v>0.68033210544201528</v>
       </c>
       <c r="B36" s="2">
         <v>60</v>
@@ -2766,7 +2766,7 @@
     <row r="37" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.21636684907961945</v>
+        <v>0.9233312202287991</v>
       </c>
       <c r="B37" s="2">
         <v>56</v>
@@ -2787,7 +2787,7 @@
     <row r="38" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.6831018632438457</v>
+        <v>0.97922061186507781</v>
       </c>
       <c r="B38" s="2">
         <v>304</v>
@@ -2808,7 +2808,7 @@
     <row r="39" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.12876132859288558</v>
+        <v>0.74340556251868917</v>
       </c>
       <c r="B39" s="2">
         <v>7</v>
@@ -2829,7 +2829,7 @@
     <row r="40" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.39580498694612243</v>
+        <v>0.42535718442858617</v>
       </c>
       <c r="B40" s="2">
         <v>266</v>
@@ -2853,7 +2853,7 @@
     <row r="41" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.41282268084380014</v>
+        <v>0.49464250413243527</v>
       </c>
       <c r="B41" s="2">
         <v>186</v>
@@ -2880,7 +2880,7 @@
     <row r="42" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2.2724375164799859E-2</v>
+        <v>0.11526386431697611</v>
       </c>
       <c r="B42" s="2">
         <v>249</v>
@@ -2904,7 +2904,7 @@
     <row r="43" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.33260089975823004</v>
+        <v>0.40486487630918333</v>
       </c>
       <c r="B43" s="2">
         <v>245</v>
@@ -2925,7 +2925,7 @@
     <row r="44" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.73971986375145249</v>
+        <v>0.397664582228483</v>
       </c>
       <c r="B44" s="2">
         <v>82</v>
@@ -2949,7 +2949,7 @@
     <row r="45" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3.2998245114581271E-2</v>
+        <v>0.88792626208359182</v>
       </c>
       <c r="B45" s="2">
         <v>140</v>
@@ -2973,7 +2973,7 @@
     <row r="46" spans="1:8" ht="144" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.32627281389303009</v>
+        <v>0.28432512429510315</v>
       </c>
       <c r="B46" s="2">
         <v>189</v>
@@ -2997,7 +2997,7 @@
     <row r="47" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.55998086325374585</v>
+        <v>0.49610330369812128</v>
       </c>
       <c r="B47" s="2">
         <v>178</v>
@@ -3018,7 +3018,7 @@
     <row r="48" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.80078467382848884</v>
+        <v>0.58008781374207974</v>
       </c>
       <c r="B48" s="2">
         <v>2</v>
@@ -3039,7 +3039,7 @@
     <row r="49" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.71975824838009683</v>
+        <v>0.26516213152421597</v>
       </c>
       <c r="B49" s="2">
         <v>130</v>
@@ -3063,7 +3063,7 @@
     <row r="50" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.43935955589034359</v>
+        <v>0.90072576464159226</v>
       </c>
       <c r="B50" s="2">
         <v>155</v>
@@ -3084,7 +3084,7 @@
     <row r="51" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.39029056030735321</v>
+        <v>0.74186714866237713</v>
       </c>
       <c r="B51" s="2">
         <v>212</v>
@@ -3105,7 +3105,7 @@
     <row r="52" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.48761707324590242</v>
+        <v>0.19359869729335744</v>
       </c>
       <c r="B52" s="2">
         <v>9</v>
@@ -3129,7 +3129,7 @@
     <row r="53" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.34299009638522882</v>
+        <v>0.25742323652493448</v>
       </c>
       <c r="B53" s="2">
         <v>167</v>
@@ -3153,7 +3153,7 @@
     <row r="54" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.28366112590443915</v>
+        <v>0.97194452879055804</v>
       </c>
       <c r="B54" s="2">
         <v>214</v>
@@ -3177,7 +3177,7 @@
     <row r="55" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.42107371425195206</v>
+        <v>0.79720465058970524</v>
       </c>
       <c r="B55" s="2">
         <v>64</v>
@@ -3201,7 +3201,7 @@
     <row r="56" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.27255437637500823</v>
+        <v>0.34434117371995943</v>
       </c>
       <c r="B56" s="2">
         <v>272</v>
@@ -3225,7 +3225,7 @@
     <row r="57" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.5267736731469983</v>
+        <v>0.79187089780411468</v>
       </c>
       <c r="B57" s="2">
         <v>290</v>
@@ -3249,7 +3249,7 @@
     <row r="58" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.74382616024199344</v>
+        <v>0.4967481003968085</v>
       </c>
       <c r="B58" s="2">
         <v>210</v>
@@ -3273,7 +3273,7 @@
     <row r="59" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.51234413315098315</v>
+        <v>4.8671782390238949E-2</v>
       </c>
       <c r="B59" s="2">
         <v>94</v>
@@ -3294,7 +3294,7 @@
     <row r="60" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.42912261995145839</v>
+        <v>0.79651942334348402</v>
       </c>
       <c r="B60" s="2">
         <v>259</v>
@@ -3318,7 +3318,7 @@
     <row r="61" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.95680436589346163</v>
+        <v>9.6336802295550306E-2</v>
       </c>
       <c r="B61" s="2">
         <v>76</v>
@@ -3339,7 +3339,7 @@
     <row r="62" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.17425116270390306</v>
+        <v>0.31392557292163015</v>
       </c>
       <c r="B62" s="2">
         <v>138</v>
@@ -3363,7 +3363,7 @@
     <row r="63" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.45411155930442082</v>
+        <v>0.15704420635055538</v>
       </c>
       <c r="B63" s="2">
         <v>206</v>
@@ -3384,7 +3384,7 @@
     <row r="64" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.4075587070140444</v>
+        <v>0.22259823178979821</v>
       </c>
       <c r="B64" s="2">
         <v>84</v>
@@ -3405,7 +3405,7 @@
     <row r="65" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1263314756306928</v>
+        <v>0.55200489784961404</v>
       </c>
       <c r="B65" s="2">
         <v>118</v>
@@ -3426,7 +3426,7 @@
     <row r="66" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <f t="shared" ref="A66:A129" ca="1" si="1">RAND()</f>
-        <v>0.89920355582895728</v>
+        <v>6.0647272661802032E-2</v>
       </c>
       <c r="B66" s="2">
         <v>297</v>
@@ -3447,7 +3447,7 @@
     <row r="67" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.25927112509084471</v>
+        <v>0.6284524361949112</v>
       </c>
       <c r="B67" s="2">
         <v>299</v>
@@ -3468,7 +3468,7 @@
     <row r="68" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.51112170772369125</v>
+        <v>0.33904146096294652</v>
       </c>
       <c r="B68" s="2">
         <v>113</v>
@@ -3492,7 +3492,7 @@
     <row r="69" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.37583531062730269</v>
+        <v>0.63690072248848062</v>
       </c>
       <c r="B69" s="2">
         <v>122</v>
@@ -3516,7 +3516,7 @@
     <row r="70" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.41523870430703058</v>
+        <v>0.20636558185374854</v>
       </c>
       <c r="B70" s="2">
         <v>229</v>
@@ -3543,7 +3543,7 @@
     <row r="71" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.40716603405854679</v>
+        <v>0.48034859633570415</v>
       </c>
       <c r="B71" s="2">
         <v>24</v>
@@ -3564,7 +3564,7 @@
     <row r="72" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.3788730324975822</v>
+        <v>0.18835537849640216</v>
       </c>
       <c r="B72" s="2">
         <v>128</v>
@@ -3585,7 +3585,7 @@
     <row r="73" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.24782451802291505</v>
+        <v>0.15627828485057238</v>
       </c>
       <c r="B73" s="2">
         <v>255</v>
@@ -3606,7 +3606,7 @@
     <row r="74" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.68822131856645774</v>
+        <v>0.86386059833605011</v>
       </c>
       <c r="B74" s="2">
         <v>158</v>
@@ -3627,7 +3627,7 @@
     <row r="75" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.37340311339011156</v>
+        <v>0.55359093206986976</v>
       </c>
       <c r="B75" s="2">
         <v>213</v>
@@ -3648,7 +3648,7 @@
     <row r="76" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.86205315772886537</v>
+        <v>0.6814085407008732</v>
       </c>
       <c r="B76" s="2">
         <v>109</v>
@@ -3672,7 +3672,7 @@
     <row r="77" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.71918739714409419</v>
+        <v>0.39478732064358391</v>
       </c>
       <c r="B77" s="2">
         <v>62</v>
@@ -3693,7 +3693,7 @@
     <row r="78" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.74941529689189457</v>
+        <v>0.42657214829772272</v>
       </c>
       <c r="B78" s="2">
         <v>25</v>
@@ -3714,7 +3714,7 @@
     <row r="79" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1.7955832276525197E-2</v>
+        <v>0.19532153026104004</v>
       </c>
       <c r="B79" s="2">
         <v>48</v>
@@ -3735,7 +3735,7 @@
     <row r="80" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.77467139804292462</v>
+        <v>0.44277397816760733</v>
       </c>
       <c r="B80" s="2">
         <v>291</v>
@@ -3759,7 +3759,7 @@
     <row r="81" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.46434821086226274</v>
+        <v>0.9217889086422858</v>
       </c>
       <c r="B81" s="2">
         <v>276</v>
@@ -3780,7 +3780,7 @@
     <row r="82" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.36496530431202767</v>
+        <v>0.52764994584308988</v>
       </c>
       <c r="B82" s="2">
         <v>5</v>
@@ -3804,7 +3804,7 @@
     <row r="83" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.39140882616888184</v>
+        <v>0.76837582647689873</v>
       </c>
       <c r="B83" s="2">
         <v>303</v>
@@ -3825,7 +3825,7 @@
     <row r="84" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.2233738072922884</v>
+        <v>0.19768721708303461</v>
       </c>
       <c r="B84" s="2">
         <v>233</v>
@@ -3849,7 +3849,7 @@
     <row r="85" spans="1:7" ht="144" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.81954113836051801</v>
+        <v>0.43792551062002605</v>
       </c>
       <c r="B85" s="2">
         <v>239</v>
@@ -3873,7 +3873,7 @@
     <row r="86" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.29274681795529289</v>
+        <v>7.9733385053515793E-2</v>
       </c>
       <c r="B86" s="2">
         <v>79</v>
@@ -3897,7 +3897,7 @@
     <row r="87" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.54593077113485478</v>
+        <v>0.37805882474527575</v>
       </c>
       <c r="B87" s="2">
         <v>105</v>
@@ -3921,7 +3921,7 @@
     <row r="88" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.60305507945067693</v>
+        <v>0.4179943594650114</v>
       </c>
       <c r="B88" s="2">
         <v>6</v>
@@ -3942,7 +3942,7 @@
     <row r="89" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.11217963640083106</v>
+        <v>0.20107130965225106</v>
       </c>
       <c r="B89" s="2">
         <v>294</v>
@@ -3966,7 +3966,7 @@
     <row r="90" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.65923465151583205</v>
+        <v>0.60189067909049854</v>
       </c>
       <c r="B90" s="2">
         <v>312</v>
@@ -3987,7 +3987,7 @@
     <row r="91" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.98883014478029974</v>
+        <v>0.68599877571278922</v>
       </c>
       <c r="B91" s="2">
         <v>97</v>
@@ -4011,7 +4011,7 @@
     <row r="92" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.19230971034098399</v>
+        <v>0.53508819393629792</v>
       </c>
       <c r="B92" s="2">
         <v>168</v>
@@ -4035,7 +4035,7 @@
     <row r="93" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.1827058071545733</v>
+        <v>0.92155021178687102</v>
       </c>
       <c r="B93" s="2">
         <v>296</v>
@@ -4059,7 +4059,7 @@
     <row r="94" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.222575671854915</v>
+        <v>0.37010430132969363</v>
       </c>
       <c r="B94" s="2">
         <v>257</v>
@@ -4080,7 +4080,7 @@
     <row r="95" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>9.6578221485547289E-2</v>
+        <v>0.2699524696582366</v>
       </c>
       <c r="B95" s="2">
         <v>72</v>
@@ -4104,7 +4104,7 @@
     <row r="96" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.31688422027019125</v>
+        <v>0.59312606151648917</v>
       </c>
       <c r="B96" s="2">
         <v>78</v>
@@ -4125,7 +4125,7 @@
     <row r="97" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.16378756823275764</v>
+        <v>7.7583515874813158E-2</v>
       </c>
       <c r="B97" s="2">
         <v>83</v>
@@ -4146,7 +4146,7 @@
     <row r="98" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.81018551746410084</v>
+        <v>0.39470641410106588</v>
       </c>
       <c r="B98" s="2">
         <v>38</v>
@@ -4170,7 +4170,7 @@
     <row r="99" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.74725146464028203</v>
+        <v>0.92710658977204763</v>
       </c>
       <c r="B99" s="2">
         <v>292</v>
@@ -4194,7 +4194,7 @@
     <row r="100" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.79370596739120136</v>
+        <v>0.84250794202576584</v>
       </c>
       <c r="B100" s="2">
         <v>228</v>
@@ -4221,7 +4221,7 @@
     <row r="101" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.47846127404246985</v>
+        <v>0.89282342779280732</v>
       </c>
       <c r="B101" s="2">
         <v>91</v>
@@ -4245,7 +4245,7 @@
     <row r="102" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>8.5850979234128877E-2</v>
+        <v>0.92678156991063809</v>
       </c>
       <c r="B102" s="2">
         <v>14</v>
@@ -4266,7 +4266,7 @@
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.45481901772662103</v>
+        <v>0.58900641865699133</v>
       </c>
       <c r="B103" s="2">
         <v>203</v>
@@ -4287,7 +4287,7 @@
     <row r="104" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.26630238166715292</v>
+        <v>0.73923674788676297</v>
       </c>
       <c r="B104" s="2">
         <v>146</v>
@@ -4311,7 +4311,7 @@
     <row r="105" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.66494387983578596</v>
+        <v>0.94759418186684208</v>
       </c>
       <c r="B105" s="2">
         <v>13</v>
@@ -4332,7 +4332,7 @@
     <row r="106" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>7.1668107248517687E-2</v>
+        <v>0.9753095559477114</v>
       </c>
       <c r="B106" s="2">
         <v>311</v>
@@ -4356,7 +4356,7 @@
     <row r="107" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.99472393954285354</v>
+        <v>0.14156827149870921</v>
       </c>
       <c r="B107" s="2">
         <v>252</v>
@@ -4377,7 +4377,7 @@
     <row r="108" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.87219197031102791</v>
+        <v>0.48477806567888448</v>
       </c>
       <c r="B108" s="2">
         <v>243</v>
@@ -4401,7 +4401,7 @@
     <row r="109" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.33432145643198208</v>
+        <v>0.76179565326250009</v>
       </c>
       <c r="B109" s="2">
         <v>147</v>
@@ -4428,7 +4428,7 @@
     <row r="110" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.49906419443648409</v>
+        <v>4.6971489046238268E-2</v>
       </c>
       <c r="B110" s="2">
         <v>20</v>
@@ -4449,7 +4449,7 @@
     <row r="111" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.41988297675701824</v>
+        <v>0.57822677469828387</v>
       </c>
       <c r="B111" s="2">
         <v>177</v>
@@ -4473,7 +4473,7 @@
     <row r="112" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.33735414871481562</v>
+        <v>0.80439212277823147</v>
       </c>
       <c r="B112" s="2">
         <v>188</v>
@@ -4494,7 +4494,7 @@
     <row r="113" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>4.2739459747419328E-2</v>
+        <v>0.27706810862177722</v>
       </c>
       <c r="B113" s="2">
         <v>261</v>
@@ -4521,7 +4521,7 @@
     <row r="114" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.12657039728462827</v>
+        <v>0.68058081833259343</v>
       </c>
       <c r="B114" s="2">
         <v>123</v>
@@ -4542,7 +4542,7 @@
     <row r="115" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.48054935029342705</v>
+        <v>0.50330275033759275</v>
       </c>
       <c r="B115" s="2">
         <v>258</v>
@@ -4569,7 +4569,7 @@
     <row r="116" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.43191825908931836</v>
+        <v>0.64949611197788748</v>
       </c>
       <c r="B116" s="2">
         <v>161</v>
@@ -4593,7 +4593,7 @@
     <row r="117" spans="1:8" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.5514751150761571</v>
+        <v>0.20399889400064286</v>
       </c>
       <c r="B117" s="2">
         <v>135</v>
@@ -4620,7 +4620,7 @@
     <row r="118" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.78217327066643527</v>
+        <v>0.10073613712649354</v>
       </c>
       <c r="B118" s="2">
         <v>298</v>
@@ -4641,7 +4641,7 @@
     <row r="119" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.8216683300531159</v>
+        <v>0.84932825146859714</v>
       </c>
       <c r="B119" s="2">
         <v>89</v>
@@ -4665,7 +4665,7 @@
     <row r="120" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A120" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.66440366229661008</v>
+        <v>0.7094577584565791</v>
       </c>
       <c r="B120" s="2">
         <v>3</v>
@@ -4686,7 +4686,7 @@
     <row r="121" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A121" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.80197024235943104</v>
+        <v>5.9665516618098491E-2</v>
       </c>
       <c r="B121" s="2">
         <v>55</v>
@@ -4707,7 +4707,7 @@
     <row r="122" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A122" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.53872386322172372</v>
+        <v>0.90498094575993338</v>
       </c>
       <c r="B122" s="2">
         <v>42</v>
@@ -4728,7 +4728,7 @@
     <row r="123" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A123" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.58165688683402139</v>
+        <v>0.34614998905148497</v>
       </c>
       <c r="B123" s="2">
         <v>41</v>
@@ -4752,7 +4752,7 @@
     <row r="124" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A124" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.37165680613549779</v>
+        <v>0.20388886488713021</v>
       </c>
       <c r="B124" s="2">
         <v>47</v>
@@ -4773,7 +4773,7 @@
     <row r="125" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A125" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.46712414299106797</v>
+        <v>0.30627792487014394</v>
       </c>
       <c r="B125" s="2">
         <v>142</v>
@@ -4800,7 +4800,7 @@
     <row r="126" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A126" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.36334389242516618</v>
+        <v>0.19555096619728241</v>
       </c>
       <c r="B126" s="2">
         <v>137</v>
@@ -4824,7 +4824,7 @@
     <row r="127" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A127" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.17063905267173951</v>
+        <v>1.9027336139401885E-2</v>
       </c>
       <c r="B127" s="2">
         <v>44</v>
@@ -4848,7 +4848,7 @@
     <row r="128" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A128" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.56350938579808951</v>
+        <v>0.52600279528118521</v>
       </c>
       <c r="B128" s="2">
         <v>65</v>
@@ -4872,7 +4872,7 @@
     <row r="129" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A129" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.60425493797947816</v>
+        <v>0.6941616404949742</v>
       </c>
       <c r="B129" s="2">
         <v>125</v>
@@ -4896,7 +4896,7 @@
     <row r="130" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A130" s="2">
         <f t="shared" ref="A130:A193" ca="1" si="2">RAND()</f>
-        <v>0.96329324263467697</v>
+        <v>0.43735211876315772</v>
       </c>
       <c r="B130" s="2">
         <v>85</v>
@@ -4917,7 +4917,7 @@
     <row r="131" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A131" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.7711210532285957</v>
+        <v>0.63988223398196675</v>
       </c>
       <c r="B131" s="2">
         <v>59</v>
@@ -4938,7 +4938,7 @@
     <row r="132" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A132" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.61047445185750104</v>
+        <v>8.6858175685416206E-2</v>
       </c>
       <c r="B132" s="2">
         <v>215</v>
@@ -4962,7 +4962,7 @@
     <row r="133" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A133" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.45643374928552105</v>
+        <v>0.79600213564110101</v>
       </c>
       <c r="B133" s="2">
         <v>310</v>
@@ -4983,7 +4983,7 @@
     <row r="134" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A134" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.54592690084404649</v>
+        <v>0.95623516058660096</v>
       </c>
       <c r="B134" s="2">
         <v>96</v>
@@ -5004,7 +5004,7 @@
     <row r="135" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A135" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.88648248093218118</v>
+        <v>0.40547509674075033</v>
       </c>
       <c r="B135" s="2">
         <v>260</v>
@@ -5028,7 +5028,7 @@
     <row r="136" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A136" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.55539100419032217</v>
+        <v>0.9390980219596845</v>
       </c>
       <c r="B136" s="2">
         <v>254</v>
@@ -5052,7 +5052,7 @@
     <row r="137" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A137" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.4280947758828525</v>
+        <v>0.60937036254196963</v>
       </c>
       <c r="B137" s="2">
         <v>119</v>
@@ -5076,7 +5076,7 @@
     <row r="138" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A138" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.69251431134219377</v>
+        <v>0.94690553020251134</v>
       </c>
       <c r="B138" s="2">
         <v>28</v>
@@ -5097,7 +5097,7 @@
     <row r="139" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A139" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.64094228330779057</v>
+        <v>0.37331238018227364</v>
       </c>
       <c r="B139" s="2">
         <v>40</v>
@@ -5121,7 +5121,7 @@
     <row r="140" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A140" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.65444431687411087</v>
+        <v>7.3953248469979416E-2</v>
       </c>
       <c r="B140" s="2">
         <v>265</v>
@@ -5148,7 +5148,7 @@
     <row r="141" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A141" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.8490469251417917</v>
+        <v>0.39399609303244887</v>
       </c>
       <c r="B141" s="2">
         <v>149</v>
@@ -5172,7 +5172,7 @@
     <row r="142" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A142" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.42738895669588284</v>
+        <v>5.172080039458038E-2</v>
       </c>
       <c r="B142" s="2">
         <v>11</v>
@@ -5193,7 +5193,7 @@
     <row r="143" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A143" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.26537022781346054</v>
+        <v>0.58432312989834867</v>
       </c>
       <c r="B143" s="2">
         <v>234</v>
@@ -5214,7 +5214,7 @@
     <row r="144" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A144" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.75905725776678268</v>
+        <v>0.56634824950189477</v>
       </c>
       <c r="B144" s="2">
         <v>280</v>
@@ -5238,7 +5238,7 @@
     <row r="145" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A145" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>4.1307453401082328E-2</v>
+        <v>0.62020410450663643</v>
       </c>
       <c r="B145" s="2">
         <v>58</v>
@@ -5259,7 +5259,7 @@
     <row r="146" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A146" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.81607425710981152</v>
+        <v>0.3836200661027358</v>
       </c>
       <c r="B146" s="2">
         <v>36</v>
@@ -5280,7 +5280,7 @@
     <row r="147" spans="1:8" ht="144" x14ac:dyDescent="0.3">
       <c r="A147" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.40803803770728764</v>
+        <v>0.20577637700163653</v>
       </c>
       <c r="B147" s="2">
         <v>192</v>
@@ -5304,7 +5304,7 @@
     <row r="148" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A148" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.88312401018830966</v>
+        <v>0.44543186624288356</v>
       </c>
       <c r="B148" s="2">
         <v>307</v>
@@ -5328,7 +5328,7 @@
     <row r="149" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A149" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.43262508314931514</v>
+        <v>0.81355964451712981</v>
       </c>
       <c r="B149" s="2">
         <v>288</v>
@@ -5349,7 +5349,7 @@
     <row r="150" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A150" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.81468947340729436</v>
+        <v>0.66897065656153865</v>
       </c>
       <c r="B150" s="2">
         <v>43</v>
@@ -5370,7 +5370,7 @@
     <row r="151" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A151" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.18083215452556356</v>
+        <v>0.94166043976236435</v>
       </c>
       <c r="B151" s="2">
         <v>74</v>
@@ -5394,7 +5394,7 @@
     <row r="152" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A152" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.32445079021189183</v>
+        <v>7.2188815042387722E-2</v>
       </c>
       <c r="B152" s="2">
         <v>162</v>
@@ -5415,7 +5415,7 @@
     <row r="153" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A153" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.51211558809127233</v>
+        <v>0.80756715139214263</v>
       </c>
       <c r="B153" s="2">
         <v>242</v>
@@ -5439,7 +5439,7 @@
     <row r="154" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A154" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.22729617453028805</v>
+        <v>0.12998918479852484</v>
       </c>
       <c r="B154" s="2">
         <v>39</v>
@@ -5463,7 +5463,7 @@
     <row r="155" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A155" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.17340320150252675</v>
+        <v>0.82237548113004189</v>
       </c>
       <c r="B155" s="2">
         <v>194</v>
@@ -5487,7 +5487,7 @@
     <row r="156" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A156" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.90887429777549134</v>
+        <v>0.37109802478945908</v>
       </c>
       <c r="B156" s="2">
         <v>315</v>
@@ -5511,7 +5511,7 @@
     <row r="157" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A157" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.91567219205212369</v>
+        <v>0.99788957816529344</v>
       </c>
       <c r="B157" s="2">
         <v>132</v>
@@ -5538,7 +5538,7 @@
     <row r="158" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A158" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.45161745866180458</v>
+        <v>0.81591760142576153</v>
       </c>
       <c r="B158" s="2">
         <v>204</v>
@@ -5559,7 +5559,7 @@
     <row r="159" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A159" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.39776404755832517</v>
+        <v>0.72524381253442627</v>
       </c>
       <c r="B159" s="2">
         <v>34</v>
@@ -5580,7 +5580,7 @@
     <row r="160" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A160" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.25799535442970745</v>
+        <v>0.97230144417584841</v>
       </c>
       <c r="B160" s="2">
         <v>150</v>
@@ -5601,7 +5601,7 @@
     <row r="161" spans="1:8" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A161" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.17563533531435116</v>
+        <v>0.25464153845457704</v>
       </c>
       <c r="B161" s="2">
         <v>224</v>
@@ -5622,7 +5622,7 @@
     <row r="162" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A162" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.85636740912335618</v>
+        <v>0.55202852743090025</v>
       </c>
       <c r="B162" s="2">
         <v>226</v>
@@ -5646,7 +5646,7 @@
     <row r="163" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A163" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.40962795621535708</v>
+        <v>0.69509518447404783</v>
       </c>
       <c r="B163" s="2">
         <v>88</v>
@@ -5667,7 +5667,7 @@
     <row r="164" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A164" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.44947075634374956</v>
+        <v>0.25470149027190903</v>
       </c>
       <c r="B164" s="2">
         <v>102</v>
@@ -5691,7 +5691,7 @@
     <row r="165" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A165" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.24599606192956602</v>
+        <v>0.11237226215371077</v>
       </c>
       <c r="B165" s="2">
         <v>232</v>
@@ -5712,7 +5712,7 @@
     <row r="166" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A166" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>8.835269975388349E-2</v>
+        <v>0.31190751335860234</v>
       </c>
       <c r="B166" s="2">
         <v>31</v>
@@ -5736,7 +5736,7 @@
     <row r="167" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A167" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.33252248474795287</v>
+        <v>1.356339372397164E-2</v>
       </c>
       <c r="B167" s="2">
         <v>184</v>
@@ -5760,7 +5760,7 @@
     <row r="168" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A168" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.9466864150272819</v>
+        <v>0.13890368200074132</v>
       </c>
       <c r="B168" s="2">
         <v>300</v>
@@ -5781,7 +5781,7 @@
     <row r="169" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A169" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.79147161510094033</v>
+        <v>0.86512149245747871</v>
       </c>
       <c r="B169" s="2">
         <v>100</v>
@@ -5805,7 +5805,7 @@
     <row r="170" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A170" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.59506691336725959</v>
+        <v>0.48196457429906281</v>
       </c>
       <c r="B170" s="2">
         <v>256</v>
@@ -5829,7 +5829,7 @@
     <row r="171" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A171" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.48844610366713603</v>
+        <v>0.75654174605033242</v>
       </c>
       <c r="B171" s="2">
         <v>248</v>
@@ -5850,7 +5850,7 @@
     <row r="172" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A172" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.71413437621437481</v>
+        <v>0.64959893276727865</v>
       </c>
       <c r="B172" s="2">
         <v>302</v>
@@ -5871,7 +5871,7 @@
     <row r="173" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A173" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.47427403007137747</v>
+        <v>0.59468243304560209</v>
       </c>
       <c r="B173" s="2">
         <v>144</v>
@@ -5898,7 +5898,7 @@
     <row r="174" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A174" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.83946188125961863</v>
+        <v>0.74675522072632861</v>
       </c>
       <c r="B174" s="2">
         <v>30</v>
@@ -5919,7 +5919,7 @@
     <row r="175" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A175" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.2399574374841581</v>
+        <v>0.92419723693884748</v>
       </c>
       <c r="B175" s="2">
         <v>108</v>
@@ -5940,7 +5940,7 @@
     <row r="176" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A176" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.76058254864601826</v>
+        <v>0.76292157474548217</v>
       </c>
       <c r="B176" s="2">
         <v>267</v>
@@ -5967,7 +5967,7 @@
     <row r="177" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A177" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.35518623958775186</v>
+        <v>0.84203526513025118</v>
       </c>
       <c r="B177" s="2">
         <v>173</v>
@@ -5991,7 +5991,7 @@
     <row r="178" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A178" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.35032735758095046</v>
+        <v>0.12721026279552905</v>
       </c>
       <c r="B178" s="2">
         <v>10</v>
@@ -6012,7 +6012,7 @@
     <row r="179" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A179" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.26133483942475888</v>
+        <v>0.47116306713894984</v>
       </c>
       <c r="B179" s="2">
         <v>172</v>
@@ -6039,7 +6039,7 @@
     <row r="180" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A180" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.5332779470376855</v>
+        <v>0.446983403326077</v>
       </c>
       <c r="B180" s="2">
         <v>87</v>
@@ -6063,7 +6063,7 @@
     <row r="181" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A181" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.1308385106341905</v>
+        <v>7.8228601487097427E-2</v>
       </c>
       <c r="B181" s="2">
         <v>164</v>
@@ -6090,7 +6090,7 @@
     <row r="182" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A182" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.94231432877206378</v>
+        <v>0.65495803007625686</v>
       </c>
       <c r="B182" s="2">
         <v>286</v>
@@ -6114,7 +6114,7 @@
     <row r="183" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A183" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.45920742344589116</v>
+        <v>0.69705445081241058</v>
       </c>
       <c r="B183" s="2">
         <v>18</v>
@@ -6138,7 +6138,7 @@
     <row r="184" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A184" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.71570120450032815</v>
+        <v>0.36075621659321122</v>
       </c>
       <c r="B184" s="2">
         <v>154</v>
@@ -6165,7 +6165,7 @@
     <row r="185" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A185" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>7.7254174975087797E-2</v>
+        <v>0.74070503880181471</v>
       </c>
       <c r="B185" s="2">
         <v>264</v>
@@ -6186,7 +6186,7 @@
     <row r="186" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A186" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.45626348349187407</v>
+        <v>0.89498951340886135</v>
       </c>
       <c r="B186" s="2">
         <v>211</v>
@@ -6213,7 +6213,7 @@
     <row r="187" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A187" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.26519582267200636</v>
+        <v>0.93642788766661089</v>
       </c>
       <c r="B187" s="2">
         <v>195</v>
@@ -6237,7 +6237,7 @@
     <row r="188" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A188" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>3.7748509707577149E-2</v>
+        <v>0.63418434944831292</v>
       </c>
       <c r="B188" s="2">
         <v>139</v>
@@ -6258,7 +6258,7 @@
     <row r="189" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A189" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.325632931733012</v>
+        <v>0.38675469455885458</v>
       </c>
       <c r="B189" s="2">
         <v>185</v>
@@ -6282,7 +6282,7 @@
     <row r="190" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A190" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.99919912424444091</v>
+        <v>0.49090761656722304</v>
       </c>
       <c r="B190" s="2">
         <v>115</v>
@@ -6303,7 +6303,7 @@
     <row r="191" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A191" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.56495850173485584</v>
+        <v>0.96394010350848636</v>
       </c>
       <c r="B191" s="2">
         <v>283</v>
@@ -6327,7 +6327,7 @@
     <row r="192" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A192" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.38579189530113822</v>
+        <v>0.58932292916776319</v>
       </c>
       <c r="B192" s="2">
         <v>156</v>
@@ -6351,7 +6351,7 @@
     <row r="193" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A193" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.50412907587850053</v>
+        <v>0.4526090312423231</v>
       </c>
       <c r="B193" s="2">
         <v>183</v>
@@ -6375,7 +6375,7 @@
     <row r="194" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A194" s="2">
         <f t="shared" ref="A194:A257" ca="1" si="3">RAND()</f>
-        <v>0.33137145183476224</v>
+        <v>0.9713359379208113</v>
       </c>
       <c r="B194" s="2">
         <v>301</v>
@@ -6396,7 +6396,7 @@
     <row r="195" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A195" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.94153210806777221</v>
+        <v>0.85188559535906083</v>
       </c>
       <c r="B195" s="2">
         <v>293</v>
@@ -6420,7 +6420,7 @@
     <row r="196" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A196" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.23955769395682192</v>
+        <v>0.30951228976452849</v>
       </c>
       <c r="B196" s="2">
         <v>29</v>
@@ -6444,7 +6444,7 @@
     <row r="197" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A197" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.84967316977001139</v>
+        <v>0.25681512741824541</v>
       </c>
       <c r="B197" s="2">
         <v>163</v>
@@ -6471,7 +6471,7 @@
     <row r="198" spans="1:8" ht="144" x14ac:dyDescent="0.3">
       <c r="A198" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.76573892543122868</v>
+        <v>0.28930769702461157</v>
       </c>
       <c r="B198" s="2">
         <v>181</v>
@@ -6495,7 +6495,7 @@
     <row r="199" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A199" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.32702866469195535</v>
+        <v>0.87001007331545921</v>
       </c>
       <c r="B199" s="2">
         <v>57</v>
@@ -6516,7 +6516,7 @@
     <row r="200" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A200" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.12155622513660702</v>
+        <v>0.3350619926266345</v>
       </c>
       <c r="B200" s="2">
         <v>282</v>
@@ -6537,7 +6537,7 @@
     <row r="201" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A201" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.7232142728876112</v>
+        <v>0.19289557117612732</v>
       </c>
       <c r="B201" s="2">
         <v>176</v>
@@ -6558,7 +6558,7 @@
     <row r="202" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A202" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.68717373451856423</v>
+        <v>0.49248098214893277</v>
       </c>
       <c r="B202" s="2">
         <v>17</v>
@@ -6582,7 +6582,7 @@
     <row r="203" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A203" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>6.3264147818773098E-2</v>
+        <v>6.9740401154778531E-2</v>
       </c>
       <c r="B203" s="2">
         <v>281</v>
@@ -6603,7 +6603,7 @@
     <row r="204" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A204" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.60803761649809762</v>
+        <v>9.6489256740336371E-2</v>
       </c>
       <c r="B204" s="2">
         <v>26</v>
@@ -6624,7 +6624,7 @@
     <row r="205" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A205" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.38212575021488004</v>
+        <v>0.28874672731178586</v>
       </c>
       <c r="B205" s="2">
         <v>250</v>
@@ -6648,7 +6648,7 @@
     <row r="206" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A206" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.82919253027935225</v>
+        <v>0.1820997018340289</v>
       </c>
       <c r="B206" s="2">
         <v>251</v>
@@ -6672,7 +6672,7 @@
     <row r="207" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A207" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.99616531280775267</v>
+        <v>0.41501877684406252</v>
       </c>
       <c r="B207" s="2">
         <v>237</v>
@@ -6693,7 +6693,7 @@
     <row r="208" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A208" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.95747546906916692</v>
+        <v>9.015159889372526E-2</v>
       </c>
       <c r="B208" s="2">
         <v>216</v>
@@ -6717,7 +6717,7 @@
     <row r="209" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A209" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.65432265150254354</v>
+        <v>8.7602894895946193E-3</v>
       </c>
       <c r="B209" s="2">
         <v>121</v>
@@ -6741,7 +6741,7 @@
     <row r="210" spans="1:7" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A210" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.80626042109059926</v>
+        <v>0.37722585352624016</v>
       </c>
       <c r="B210" s="2">
         <v>136</v>
@@ -6765,7 +6765,7 @@
     <row r="211" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A211" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.45379695177743218</v>
+        <v>0.38394877416312656</v>
       </c>
       <c r="B211" s="2">
         <v>37</v>
@@ -6789,7 +6789,7 @@
     <row r="212" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A212" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.89876238581807</v>
+        <v>0.74260674640682178</v>
       </c>
       <c r="B212" s="2">
         <v>175</v>
@@ -6810,7 +6810,7 @@
     <row r="213" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A213" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.36716528285364414</v>
+        <v>0.80503615143596674</v>
       </c>
       <c r="B213" s="2">
         <v>110</v>
@@ -6834,7 +6834,7 @@
     <row r="214" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A214" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.31503781692507671</v>
+        <v>0.25154151335091079</v>
       </c>
       <c r="B214" s="2">
         <v>174</v>
@@ -6855,7 +6855,7 @@
     <row r="215" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A215" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.95824323137964262</v>
+        <v>0.82486896770897356</v>
       </c>
       <c r="B215" s="2">
         <v>205</v>
@@ -6876,7 +6876,7 @@
     <row r="216" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A216" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>8.3906363395567007E-2</v>
+        <v>0.48312924083008613</v>
       </c>
       <c r="B216" s="2">
         <v>120</v>
@@ -6897,7 +6897,7 @@
     <row r="217" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A217" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.81436653268138604</v>
+        <v>0.88443185906758393</v>
       </c>
       <c r="B217" s="2">
         <v>106</v>
@@ -6921,7 +6921,7 @@
     <row r="218" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A218" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.18653698454328249</v>
+        <v>0.81169748797008201</v>
       </c>
       <c r="B218" s="2">
         <v>241</v>
@@ -6945,7 +6945,7 @@
     <row r="219" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A219" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>4.1550122134645706E-2</v>
+        <v>0.32080570005012787</v>
       </c>
       <c r="B219" s="2">
         <v>112</v>
@@ -6966,7 +6966,7 @@
     <row r="220" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A220" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.35775964312418185</v>
+        <v>0.54113429012305281</v>
       </c>
       <c r="B220" s="2">
         <v>207</v>
@@ -6987,7 +6987,7 @@
     <row r="221" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A221" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.33188658853191799</v>
+        <v>3.5650394525770679E-2</v>
       </c>
       <c r="B221" s="2">
         <v>141</v>
@@ -7011,7 +7011,7 @@
     <row r="222" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A222" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.18567841694379461</v>
+        <v>0.45349867558030688</v>
       </c>
       <c r="B222" s="2">
         <v>98</v>
@@ -7035,7 +7035,7 @@
     <row r="223" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A223" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>9.8963402715759097E-2</v>
+        <v>0.14158217472459533</v>
       </c>
       <c r="B223" s="2">
         <v>4</v>
@@ -7056,7 +7056,7 @@
     <row r="224" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A224" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.26009631813735268</v>
+        <v>0.4432303357258297</v>
       </c>
       <c r="B224" s="2">
         <v>27</v>
@@ -7077,7 +7077,7 @@
     <row r="225" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A225" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.18965642065003141</v>
+        <v>0.18709673325259968</v>
       </c>
       <c r="B225" s="2">
         <v>271</v>
@@ -7098,7 +7098,7 @@
     <row r="226" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A226" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.63672641791295059</v>
+        <v>0.13723747407750875</v>
       </c>
       <c r="B226" s="2">
         <v>117</v>
@@ -7122,7 +7122,7 @@
     <row r="227" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A227" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.7317946019520557</v>
+        <v>0.46936077987485236</v>
       </c>
       <c r="B227" s="2">
         <v>53</v>
@@ -7143,7 +7143,7 @@
     <row r="228" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A228" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.55803711094512776</v>
+        <v>0.99549157898098384</v>
       </c>
       <c r="B228" s="2">
         <v>209</v>
@@ -7167,7 +7167,7 @@
     <row r="229" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A229" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.62009710513062311</v>
+        <v>0.41682739613835418</v>
       </c>
       <c r="B229" s="2">
         <v>143</v>
@@ -7194,7 +7194,7 @@
     <row r="230" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A230" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.57731143294390896</v>
+        <v>0.79431207829976713</v>
       </c>
       <c r="B230" s="2">
         <v>287</v>
@@ -7218,7 +7218,7 @@
     <row r="231" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A231" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.68587274258137909</v>
+        <v>0.72229451556714941</v>
       </c>
       <c r="B231" s="2">
         <v>275</v>
@@ -7242,7 +7242,7 @@
     <row r="232" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A232" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>2.394693152617311E-2</v>
+        <v>0.5843686747339536</v>
       </c>
       <c r="B232" s="2">
         <v>95</v>
@@ -7266,7 +7266,7 @@
     <row r="233" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A233" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.43137554009581758</v>
+        <v>0.96656862720211056</v>
       </c>
       <c r="B233" s="2">
         <v>217</v>
@@ -7287,7 +7287,7 @@
     <row r="234" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A234" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.55416611163351803</v>
+        <v>0.90094672107648255</v>
       </c>
       <c r="B234" s="2">
         <v>268</v>
@@ -7314,7 +7314,7 @@
     <row r="235" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A235" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.5313877984996932</v>
+        <v>0.42643649503291603</v>
       </c>
       <c r="B235" s="2">
         <v>61</v>
@@ -7335,7 +7335,7 @@
     <row r="236" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A236" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.54412445788445629</v>
+        <v>0.76339942354417833</v>
       </c>
       <c r="B236" s="2">
         <v>231</v>
@@ -7362,7 +7362,7 @@
     <row r="237" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A237" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.23777806322350648</v>
+        <v>0.83707977269580458</v>
       </c>
       <c r="B237" s="2">
         <v>71</v>
@@ -7383,7 +7383,7 @@
     <row r="238" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A238" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.79725842489699772</v>
+        <v>0.98649944899875386</v>
       </c>
       <c r="B238" s="2">
         <v>225</v>
@@ -7410,7 +7410,7 @@
     <row r="239" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A239" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.9255216993796167</v>
+        <v>0.87625118636750809</v>
       </c>
       <c r="B239" s="2">
         <v>198</v>
@@ -7434,7 +7434,7 @@
     <row r="240" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A240" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.19706115548247949</v>
+        <v>0.20078979476268766</v>
       </c>
       <c r="B240" s="2">
         <v>93</v>
@@ -7455,7 +7455,7 @@
     <row r="241" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A241" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.61890739003074147</v>
+        <v>0.74281043136498037</v>
       </c>
       <c r="B241" s="2">
         <v>222</v>
@@ -7482,7 +7482,7 @@
     <row r="242" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A242" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.64099324341388741</v>
+        <v>0.42255892792429406</v>
       </c>
       <c r="B242" s="2">
         <v>187</v>
@@ -7503,7 +7503,7 @@
     <row r="243" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A243" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.77969569641140068</v>
+        <v>1.9794226944410909E-2</v>
       </c>
       <c r="B243" s="2">
         <v>107</v>
@@ -7527,7 +7527,7 @@
     <row r="244" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A244" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.61562364191452057</v>
+        <v>3.6585364238466922E-2</v>
       </c>
       <c r="B244" s="2">
         <v>153</v>
@@ -7554,7 +7554,7 @@
     <row r="245" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A245" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.18626844811296384</v>
+        <v>0.58448312325604468</v>
       </c>
       <c r="B245" s="2">
         <v>81</v>
@@ -7578,7 +7578,7 @@
     <row r="246" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A246" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.40008309421250143</v>
+        <v>0.413789041076432</v>
       </c>
       <c r="B246" s="2">
         <v>148</v>
@@ -7602,7 +7602,7 @@
     <row r="247" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A247" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.40816055850912347</v>
+        <v>0.24378109607953691</v>
       </c>
       <c r="B247" s="2">
         <v>240</v>
@@ -7626,7 +7626,7 @@
     <row r="248" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A248" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>4.2644803364278894E-2</v>
+        <v>0.41774685151684787</v>
       </c>
       <c r="B248" s="2">
         <v>104</v>
@@ -7650,7 +7650,7 @@
     <row r="249" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A249" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.69394482877400998</v>
+        <v>0.21104673822340803</v>
       </c>
       <c r="B249" s="2">
         <v>295</v>
@@ -7674,7 +7674,7 @@
     <row r="250" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A250" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.95233597281784754</v>
+        <v>0.15483241247757284</v>
       </c>
       <c r="B250" s="2">
         <v>247</v>
@@ -7695,7 +7695,7 @@
     <row r="251" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A251" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.28565904742857695</v>
+        <v>0.92263909500187913</v>
       </c>
       <c r="B251" s="2">
         <v>230</v>
@@ -7722,7 +7722,7 @@
     <row r="252" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A252" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.45555579072631502</v>
+        <v>0.31103796028734187</v>
       </c>
       <c r="B252" s="2">
         <v>223</v>
@@ -7752,7 +7752,7 @@
     <row r="253" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A253" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.34946069571666316</v>
+        <v>0.28346438214375203</v>
       </c>
       <c r="B253" s="2">
         <v>277</v>
@@ -7776,7 +7776,7 @@
     <row r="254" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A254" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.44048163442264043</v>
+        <v>0.29504557558694922</v>
       </c>
       <c r="B254" s="2">
         <v>278</v>
@@ -7803,7 +7803,7 @@
     <row r="255" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A255" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.75549465092200951</v>
+        <v>0.42140113596079298</v>
       </c>
       <c r="B255" s="2">
         <v>70</v>
@@ -7827,7 +7827,7 @@
     <row r="256" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A256" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.37282220597964066</v>
+        <v>0.29093911528949579</v>
       </c>
       <c r="B256" s="2">
         <v>253</v>
@@ -7851,7 +7851,7 @@
     <row r="257" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A257" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.57864626716109901</v>
+        <v>6.0063692642267408E-2</v>
       </c>
       <c r="B257" s="2">
         <v>157</v>
@@ -7878,7 +7878,7 @@
     <row r="258" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A258" s="2">
         <f t="shared" ref="A258:A316" ca="1" si="4">RAND()</f>
-        <v>0.9319207412254128</v>
+        <v>0.70982182263244853</v>
       </c>
       <c r="B258" s="2">
         <v>101</v>
@@ -7899,7 +7899,7 @@
     <row r="259" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A259" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.53846806472423192</v>
+        <v>0.13441599623674183</v>
       </c>
       <c r="B259" s="2">
         <v>289</v>
@@ -7926,7 +7926,7 @@
     <row r="260" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A260" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.66032231044440748</v>
+        <v>0.37011325727736877</v>
       </c>
       <c r="B260" s="2">
         <v>23</v>
@@ -7953,7 +7953,7 @@
     <row r="261" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A261" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.88031746189878601</v>
+        <v>0.96216509756252533</v>
       </c>
       <c r="B261" s="2">
         <v>279</v>
@@ -7977,7 +7977,7 @@
     <row r="262" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A262" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.35583926844421909</v>
+        <v>0.72275621892980779</v>
       </c>
       <c r="B262" s="2">
         <v>32</v>
@@ -7998,7 +7998,7 @@
     <row r="263" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A263" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.61139243299182622</v>
+        <v>0.13418513272497612</v>
       </c>
       <c r="B263" s="2">
         <v>68</v>
@@ -8019,7 +8019,7 @@
     <row r="264" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A264" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.37770081255823085</v>
+        <v>0.36803173284009782</v>
       </c>
       <c r="B264" s="2">
         <v>12</v>
@@ -8043,7 +8043,7 @@
     <row r="265" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A265" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.67147330802587191</v>
+        <v>0.45943524243767608</v>
       </c>
       <c r="B265" s="2">
         <v>90</v>
@@ -8067,7 +8067,7 @@
     <row r="266" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A266" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.56111091750835662</v>
+        <v>0.7372640101111283</v>
       </c>
       <c r="B266" s="2">
         <v>54</v>
@@ -8088,7 +8088,7 @@
     <row r="267" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A267" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.27410552717894798</v>
+        <v>0.30287540245340905</v>
       </c>
       <c r="B267" s="2">
         <v>111</v>
@@ -8109,7 +8109,7 @@
     <row r="268" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A268" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.74837550717699797</v>
+        <v>0.53978640144147783</v>
       </c>
       <c r="B268" s="2">
         <v>200</v>
@@ -8130,7 +8130,7 @@
     <row r="269" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A269" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.88664146997514182</v>
+        <v>0.25153618960917767</v>
       </c>
       <c r="B269" s="2">
         <v>219</v>
@@ -8151,7 +8151,7 @@
     <row r="270" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A270" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.25057015333304888</v>
+        <v>0.43528707776215447</v>
       </c>
       <c r="B270" s="2">
         <v>8</v>
@@ -8172,7 +8172,7 @@
     <row r="271" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A271" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.64971116392947936</v>
+        <v>0.75089577446806244</v>
       </c>
       <c r="B271" s="2">
         <v>306</v>
@@ -8196,7 +8196,7 @@
     <row r="272" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A272" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>1.6432729318871631E-2</v>
+        <v>0.768150165314615</v>
       </c>
       <c r="B272" s="2">
         <v>220</v>
@@ -8217,7 +8217,7 @@
     <row r="273" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A273" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.83157253969694422</v>
+        <v>0.46036329488233751</v>
       </c>
       <c r="B273" s="2">
         <v>127</v>
@@ -8238,7 +8238,7 @@
     <row r="274" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A274" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.53603927990354971</v>
+        <v>0.63675103684034806</v>
       </c>
       <c r="B274" s="2">
         <v>263</v>
@@ -8259,7 +8259,7 @@
     <row r="275" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A275" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.40957482596033823</v>
+        <v>0.49884786831389794</v>
       </c>
       <c r="B275" s="2">
         <v>246</v>
@@ -8280,7 +8280,7 @@
     <row r="276" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A276" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>2.5727172569216639E-2</v>
+        <v>0.83459003199949433</v>
       </c>
       <c r="B276" s="2">
         <v>309</v>
@@ -8301,7 +8301,7 @@
     <row r="277" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A277" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.73529678693602152</v>
+        <v>0.37754702467349266</v>
       </c>
       <c r="B277" s="2">
         <v>165</v>
@@ -8325,7 +8325,7 @@
     <row r="278" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A278" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.3641649347040905</v>
+        <v>0.56418859111429587</v>
       </c>
       <c r="B278" s="2">
         <v>169</v>
@@ -8349,7 +8349,7 @@
     <row r="279" spans="1:7" ht="216" x14ac:dyDescent="0.3">
       <c r="A279" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>7.355085000508732E-2</v>
+        <v>0.86619305218022979</v>
       </c>
       <c r="B279" s="2">
         <v>191</v>
@@ -8373,7 +8373,7 @@
     <row r="280" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A280" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.56779386494034012</v>
+        <v>0.75831504074668465</v>
       </c>
       <c r="B280" s="2">
         <v>103</v>
@@ -8397,7 +8397,7 @@
     <row r="281" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A281" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.21714726311368771</v>
+        <v>0.92742404737612905</v>
       </c>
       <c r="B281" s="2">
         <v>273</v>
@@ -8418,7 +8418,7 @@
     <row r="282" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A282" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.82567095516604416</v>
+        <v>0.34404703124000624</v>
       </c>
       <c r="B282" s="2">
         <v>202</v>
@@ -8439,7 +8439,7 @@
     <row r="283" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A283" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.66848264111129185</v>
+        <v>0.91045743074635765</v>
       </c>
       <c r="B283" s="2">
         <v>305</v>
@@ -8460,7 +8460,7 @@
     <row r="284" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A284" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>1.4424252378496649E-2</v>
+        <v>0.13917311238646113</v>
       </c>
       <c r="B284" s="2">
         <v>66</v>
@@ -8484,7 +8484,7 @@
     <row r="285" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A285" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.89394393057696897</v>
+        <v>1.6139415671371338E-2</v>
       </c>
       <c r="B285" s="2">
         <v>199</v>
@@ -8508,7 +8508,7 @@
     <row r="286" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A286" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>9.3317905633648168E-2</v>
+        <v>0.75175720280660563</v>
       </c>
       <c r="B286" s="2">
         <v>51</v>
@@ -8529,7 +8529,7 @@
     <row r="287" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A287" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.61429142834406525</v>
+        <v>0.55682758225003581</v>
       </c>
       <c r="B287" s="2">
         <v>166</v>
@@ -8553,7 +8553,7 @@
     <row r="288" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A288" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.67739117806876004</v>
+        <v>0.5875497694268399</v>
       </c>
       <c r="B288" s="2">
         <v>274</v>
@@ -8574,7 +8574,7 @@
     <row r="289" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A289" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.73050175646030213</v>
+        <v>0.78048599167752319</v>
       </c>
       <c r="B289" s="2">
         <v>33</v>
@@ -8595,7 +8595,7 @@
     <row r="290" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A290" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.46196579960501016</v>
+        <v>0.1297911247280602</v>
       </c>
       <c r="B290" s="2">
         <v>196</v>
@@ -8619,7 +8619,7 @@
     <row r="291" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A291" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.26884335820711347</v>
+        <v>0.97461734610105422</v>
       </c>
       <c r="B291" s="2">
         <v>182</v>
@@ -8643,7 +8643,7 @@
     <row r="292" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A292" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.72553785555311967</v>
+        <v>0.6782134102912043</v>
       </c>
       <c r="B292" s="2">
         <v>63</v>
@@ -8667,7 +8667,7 @@
     <row r="293" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A293" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.33261569773003519</v>
+        <v>0.88009542729746837</v>
       </c>
       <c r="B293" s="2">
         <v>133</v>
@@ -8694,7 +8694,7 @@
     <row r="294" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A294" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.78591013746937732</v>
+        <v>0.23362624631855822</v>
       </c>
       <c r="B294" s="2">
         <v>308</v>
@@ -8718,7 +8718,7 @@
     <row r="295" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A295" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.8948665734146849</v>
+        <v>0.35930612295526776</v>
       </c>
       <c r="B295" s="2">
         <v>52</v>
@@ -8739,7 +8739,7 @@
     <row r="296" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A296" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.29040268521045198</v>
+        <v>0.97640483088308427</v>
       </c>
       <c r="B296" s="2">
         <v>35</v>
@@ -8760,7 +8760,7 @@
     <row r="297" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A297" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.32068505425165317</v>
+        <v>0.46809550979169934</v>
       </c>
       <c r="B297" s="2">
         <v>159</v>
@@ -8784,7 +8784,7 @@
     <row r="298" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A298" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.83173094697499217</v>
+        <v>0.21001120521695493</v>
       </c>
       <c r="B298" s="2">
         <v>124</v>
@@ -8808,7 +8808,7 @@
     <row r="299" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A299" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.31367858771339352</v>
+        <v>0.82361623841209275</v>
       </c>
       <c r="B299" s="2">
         <v>179</v>
@@ -8832,7 +8832,7 @@
     <row r="300" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A300" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.98848262130815345</v>
+        <v>4.4154433786754654E-2</v>
       </c>
       <c r="B300" s="2">
         <v>285</v>
@@ -8856,7 +8856,7 @@
     <row r="301" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A301" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.89499361408498546</v>
+        <v>9.5726265248845532E-3</v>
       </c>
       <c r="B301" s="2">
         <v>16</v>
@@ -8877,7 +8877,7 @@
     <row r="302" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A302" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.81944856054163673</v>
+        <v>0.80106360816487887</v>
       </c>
       <c r="B302" s="2">
         <v>313</v>
@@ -8898,7 +8898,7 @@
     <row r="303" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A303" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.75732353214279946</v>
+        <v>0.39754990247917577</v>
       </c>
       <c r="B303" s="2">
         <v>201</v>
@@ -8922,7 +8922,7 @@
     <row r="304" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A304" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.67620212865561147</v>
+        <v>0.14193431444932259</v>
       </c>
       <c r="B304" s="2">
         <v>77</v>
@@ -8943,7 +8943,7 @@
     <row r="305" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A305" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.58740239433002628</v>
+        <v>0.1082736710292731</v>
       </c>
       <c r="B305" s="2">
         <v>269</v>
@@ -8967,7 +8967,7 @@
     <row r="306" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A306" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.36986015592201049</v>
+        <v>0.8823131180969479</v>
       </c>
       <c r="B306" s="2">
         <v>49</v>
@@ -8991,7 +8991,7 @@
     <row r="307" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A307" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.42138510459446266</v>
+        <v>0.30866268368094407</v>
       </c>
       <c r="B307" s="2">
         <v>221</v>
@@ -9021,7 +9021,7 @@
     <row r="308" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A308" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.33685349840300838</v>
+        <v>0.93180992124216533</v>
       </c>
       <c r="B308" s="2">
         <v>129</v>
@@ -9042,7 +9042,7 @@
     <row r="309" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A309" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.22612572254154029</v>
+        <v>0.14811052638150235</v>
       </c>
       <c r="B309" s="2">
         <v>145</v>
@@ -9066,7 +9066,7 @@
     <row r="310" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A310" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.24075559241718147</v>
+        <v>0.34289286530695473</v>
       </c>
       <c r="B310" s="2">
         <v>235</v>
@@ -9090,7 +9090,7 @@
     <row r="311" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A311" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.1191330784640714</v>
+        <v>0.78539599442007046</v>
       </c>
       <c r="B311" s="2">
         <v>270</v>
@@ -9114,7 +9114,7 @@
     <row r="312" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A312" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.13372613540519285</v>
+        <v>0.24185717306424426</v>
       </c>
       <c r="B312" s="2">
         <v>15</v>
@@ -9138,7 +9138,7 @@
     <row r="313" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A313" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.27745727918497753</v>
+        <v>0.22551542940514269</v>
       </c>
       <c r="B313" s="2">
         <v>262</v>
@@ -9165,7 +9165,7 @@
     <row r="314" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A314" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.30279070917308237</v>
+        <v>0.2266145360806141</v>
       </c>
       <c r="B314" s="2">
         <v>218</v>
@@ -9186,7 +9186,7 @@
     <row r="315" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A315" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.17598206873975453</v>
+        <v>8.1989105010956242E-2</v>
       </c>
       <c r="B315" s="2">
         <v>73</v>
@@ -9210,7 +9210,7 @@
     <row r="316" spans="1:9" ht="144" x14ac:dyDescent="0.3">
       <c r="A316" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.49876176350413159</v>
+        <v>3.7816849377992123E-2</v>
       </c>
       <c r="B316" s="2">
         <v>131</v>
@@ -9343,7 +9343,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L316"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A302" workbookViewId="0">
+    <sheetView topLeftCell="A302" workbookViewId="0">
       <selection activeCell="A364" sqref="A317:XFD364"/>
     </sheetView>
   </sheetViews>
